--- a/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>14,99; 26,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>15,62; 26,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>10,65; 18,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>10,79; 20,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>9,75; 18,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>8,3; 13,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>14,39; 21,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>14,23; 21,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>10,28; 15,25</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>19,95; 28,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>23,77; 32,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>14,17; 22,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>5,16; 11,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>16,09; 23,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>14,59; 21,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>9,57; 16,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,34; 10,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>18,83; 24,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>19,97; 25,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>13,11; 18,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,37; 9,84</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,12%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>16,44; 27,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>22,76; 33,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>7,94; 14,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>14,93; 22,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>8,93; 16,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>15,65; 24,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>5,47; 11,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>13,0; 19,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>13,34; 19,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>20,27; 27,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>7,5; 12,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>14,72; 19,82</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,35%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>11,93; 20,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>25,06; 32,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>19,16; 28,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>11,64; 21,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>8,35; 15,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>16,03; 22,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>10,11; 17,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>7,31; 12,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>11,15; 16,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>21,42; 26,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>14,9; 21,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>10,06; 15,24</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,52%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>16,05; 27,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>22,11; 35,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>10,72; 23,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>16,5; 26,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>9,88; 21,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>16,64; 28,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>10,22; 22,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>10,34; 16,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>14,31; 22,75</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>20,92; 30,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>12,14; 21,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>13,86; 19,51</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,97%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>10,9; 21,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>26,64; 39,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>22,89; 34,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>16,46; 24,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>6,77; 14,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>18,25; 28,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>15,64; 26,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>16,46; 23,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>9,91; 16,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>23,89; 31,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>20,36; 28,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>17,38; 22,75</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>16,07; 23,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>17,06; 24,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>10,4; 17,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>9,54; 15,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>12,46; 18,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>10,54; 16,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>7,77; 13,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,98; 10,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>14,73; 19,42</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>14,52; 18,92</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>9,9; 14,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,5; 11,86</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,58%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>16,49; 23,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>13,98; 20,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>13,32; 19,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>15,54; 22,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>11,4; 17,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>12,9; 18,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>10,82; 16,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,55; 13,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>14,96; 19,14</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>14,09; 18,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>12,96; 16,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>13,57; 17,63</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>18,43; 21,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>22,96; 26,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>16,5; 19,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,2; 17,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,43; 16,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>16,28; 19,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>11,77; 14,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,94; 12,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>16,14; 18,29</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>19,9; 22,08</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>14,29; 16,27</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>12,31; 14,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,98; 36,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 18,81</t>
+          <t>9,71; 17,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,86; 25,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,91</t>
+          <t>7,96; 13,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,55; 29,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,28; 15,25</t>
+          <t>9,76; 14,68</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,92%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,01</t>
+          <t>5,1; 11,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,41</t>
+          <t>6,35; 10,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 9,84</t>
+          <t>6,38; 10,25</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>16,93%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,93; 22,99</t>
+          <t>14,64; 22,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,23</t>
+          <t>12,91; 19,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,72; 19,82</t>
+          <t>14,55; 19,7</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,06; 32,98</t>
+          <t>23,76; 34,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 21,54</t>
+          <t>11,51; 21,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 22,9</t>
+          <t>13,93; 22,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,68</t>
+          <t>4,83; 11,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,42; 26,76</t>
+          <t>19,98; 26,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,24</t>
+          <t>8,26; 14,16</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,7%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,5; 26,37</t>
+          <t>16,6; 26,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,34; 16,78</t>
+          <t>10,51; 17,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,86; 19,51</t>
+          <t>14,0; 19,66</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,83%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 24,77</t>
+          <t>16,25; 24,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 23,83</t>
+          <t>16,55; 23,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,38; 22,75</t>
+          <t>17,2; 22,58</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>9,26%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,35</t>
+          <t>9,48; 15,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,3</t>
+          <t>3,19; 10,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 11,86</t>
+          <t>5,89; 11,67</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,54; 22,82</t>
+          <t>6,85; 21,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,55; 13,5</t>
+          <t>9,61; 13,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,57; 17,63</t>
+          <t>8,38; 16,86</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>12,43%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,2; 17,0</t>
+          <t>10,9; 16,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,94; 12,01</t>
+          <t>8,49; 11,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,31; 14,13</t>
+          <t>10,79; 13,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 26,77</t>
+          <t>14,86; 26,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,98; 36,1</t>
+          <t>24,37; 36,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,62; 26,64</t>
+          <t>14,68; 25,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,71; 17,72</t>
+          <t>9,47; 17,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 20,78</t>
+          <t>9,99; 20,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 25,58</t>
+          <t>14,6; 25,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 18,87</t>
+          <t>9,77; 19,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 13,65</t>
+          <t>8,1; 13,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,39; 21,81</t>
+          <t>14,0; 21,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,55; 29,12</t>
+          <t>20,71; 28,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,23; 21,05</t>
+          <t>13,96; 21,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,76; 14,68</t>
+          <t>9,69; 14,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,95; 28,44</t>
+          <t>19,1; 27,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,77; 32,81</t>
+          <t>23,46; 33,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 22,4</t>
+          <t>14,56; 22,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 11,64</t>
+          <t>5,36; 11,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 23,3</t>
+          <t>15,91; 23,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,59; 21,49</t>
+          <t>13,96; 21,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 16,44</t>
+          <t>9,36; 16,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,47</t>
+          <t>6,22; 10,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,83; 24,7</t>
+          <t>18,76; 24,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,97; 25,77</t>
+          <t>19,71; 25,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,11; 18,28</t>
+          <t>12,93; 18,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,25</t>
+          <t>6,18; 9,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,44; 27,43</t>
+          <t>16,32; 27,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 33,38</t>
+          <t>22,59; 33,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 14,87</t>
+          <t>7,74; 14,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 22,71</t>
+          <t>14,53; 22,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,93; 16,39</t>
+          <t>8,98; 16,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 24,8</t>
+          <t>15,61; 24,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,68</t>
+          <t>5,67; 11,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 19,1</t>
+          <t>12,82; 19,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,55</t>
+          <t>13,41; 19,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,27; 27,16</t>
+          <t>20,44; 27,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 12,12</t>
+          <t>7,43; 12,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,7</t>
+          <t>14,67; 19,36</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 20,12</t>
+          <t>12,09; 21,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,76; 34,2</t>
+          <t>23,63; 34,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,16; 28,62</t>
+          <t>18,62; 27,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 21,59</t>
+          <t>11,3; 21,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,35; 15,57</t>
+          <t>8,42; 15,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 22,61</t>
+          <t>14,36; 22,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 17,55</t>
+          <t>9,74; 17,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,07</t>
+          <t>4,77; 10,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,48</t>
+          <t>11,02; 16,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 26,96</t>
+          <t>19,8; 26,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,04</t>
+          <t>14,73; 20,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 14,16</t>
+          <t>7,86; 14,32</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,05; 27,98</t>
+          <t>15,7; 28,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,11; 35,78</t>
+          <t>22,07; 35,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,72; 23,74</t>
+          <t>10,52; 24,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,6; 26,41</t>
+          <t>16,73; 26,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,88; 21,75</t>
+          <t>10,03; 22,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 28,45</t>
+          <t>16,49; 28,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,22; 22,51</t>
+          <t>10,23; 23,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,51; 17,0</t>
+          <t>10,64; 16,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,31; 22,75</t>
+          <t>14,15; 22,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,92; 30,47</t>
+          <t>21,42; 29,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,14; 21,1</t>
+          <t>12,57; 21,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,0; 19,66</t>
+          <t>14,12; 19,6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,9; 21,24</t>
+          <t>10,51; 21,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,64; 39,33</t>
+          <t>26,21; 38,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,89; 34,4</t>
+          <t>23,38; 35,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,25; 24,43</t>
+          <t>15,85; 24,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 14,92</t>
+          <t>6,48; 14,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,25; 28,78</t>
+          <t>18,35; 29,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 26,01</t>
+          <t>15,71; 25,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,55; 23,88</t>
+          <t>16,5; 23,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,91; 16,52</t>
+          <t>9,75; 16,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,89; 31,92</t>
+          <t>23,96; 32,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>20,36; 28,5</t>
+          <t>20,08; 27,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 22,58</t>
+          <t>17,19; 22,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,07; 23,55</t>
+          <t>16,2; 23,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,06; 24,17</t>
+          <t>16,82; 23,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,4; 17,16</t>
+          <t>10,29; 17,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,62</t>
+          <t>9,21; 15,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,46; 18,45</t>
+          <t>12,46; 18,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,62</t>
+          <t>10,5; 16,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,77; 13,38</t>
+          <t>7,84; 13,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 10,12</t>
+          <t>3,26; 10,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,73; 19,42</t>
+          <t>14,97; 19,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,52; 18,92</t>
+          <t>14,47; 18,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,18</t>
+          <t>9,84; 14,36</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 11,67</t>
+          <t>5,61; 11,48</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,49; 23,39</t>
+          <t>16,58; 23,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,98; 20,16</t>
+          <t>13,85; 20,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,32; 19,33</t>
+          <t>13,66; 19,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,85; 21,99</t>
+          <t>6,48; 22,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,4; 17,35</t>
+          <t>11,55; 17,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,61</t>
+          <t>12,76; 18,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,82; 16,14</t>
+          <t>10,88; 16,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,61; 13,54</t>
+          <t>9,56; 13,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,96; 19,14</t>
+          <t>14,88; 19,26</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,09; 18,37</t>
+          <t>13,99; 18,17</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12,96; 16,84</t>
+          <t>12,9; 16,88</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,38; 16,86</t>
+          <t>7,34; 16,73</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,43; 21,69</t>
+          <t>18,37; 21,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,96; 26,31</t>
+          <t>23,07; 26,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,5; 19,51</t>
+          <t>16,39; 19,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,17</t>
+          <t>11,18; 16,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,43; 16,2</t>
+          <t>13,28; 15,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,28; 19,2</t>
+          <t>16,21; 18,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,41</t>
+          <t>11,7; 14,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,49; 11,57</t>
+          <t>8,63; 11,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,14; 18,29</t>
+          <t>16,06; 18,26</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,9; 22,08</t>
+          <t>19,98; 22,12</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>14,29; 16,27</t>
+          <t>14,36; 16,34</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>10,79; 13,59</t>
+          <t>10,75; 13,57</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por la extracción de algún diente o muela</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39050</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>75119</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>50097</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>40785</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31090</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>49876</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34509</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30118</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70140</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>124995</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>84606</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>70903</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>28453; 51610</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>61049; 90755</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35990; 63334</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28926; 54375</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20099; 41524</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36390; 64065</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23956; 47316</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23301; 39166</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54992; 85200</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>103502; 142886</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>68469; 103270</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57452; 86827</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>97102</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>114159</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>66706</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>38899</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>86007</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77560</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50779</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40993</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>183108</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>191719</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>117485</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79892</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>78252; 114191</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>95323; 135206</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>52863; 82596</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27178; 59129</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>70191; 105360</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61128; 94584</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36823; 63282</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31197; 51516</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>159621; 207383</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>166396; 218423</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>97844; 138812</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>62312; 100164</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>50321</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>81594</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32145</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54870</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35943</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>65587</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25724</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52908</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>86264</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>147182</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>57869</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>107778</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38613; 63857</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>66348; 97899</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22492; 42650</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43752; 68963</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25935; 47325</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>51332; 80744</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17447; 36731</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42997; 63932</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>70436; 104511</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>127246; 170234</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>44475; 72620</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>93391; 123239</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>42433</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>89008</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>76163</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>49848</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>34502</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>63060</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46272</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37739</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>76934</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>152067</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>122435</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>87587</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>32346; 57345</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>73969; 106601</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>61466; 92196</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35029; 66921</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25221; 47511</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>49231; 77206</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33994; 61415</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22592; 51395</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>62480; 92818</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>129884; 176694</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>100031; 141954</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>61563; 112202</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>36440</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>55251</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19876</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35463</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>26276</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43485</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23122</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26441</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>62717</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>98736</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>42997</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>61904</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26727; 48382</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>42389; 68400</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12537; 28954</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28174; 44877</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17448; 39391</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>32253; 56406</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14886; 33828</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21532; 33167</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>48689; 76455</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>83014; 115175</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>33280; 56435</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>52358; 72654</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>29691</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>81238</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>66031</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>50285</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>20997</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>61686</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50047</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48900</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>50688</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>142924</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>116079</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>99185</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>19891; 41222</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>65514; 96540</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>54615; 81819</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>40206; 61063</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13244; 30307</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>48608; 78292</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>38825; 63990</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>40659; 58138</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>38377; 65384</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>123338; 166084</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>96524; 134366</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>85980; 113565</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>90812</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>117584</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>59901</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>73411</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>82359</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>82703</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>50285</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>58863</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>173171</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>200286</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>110186</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>132274</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>75201; 109008</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>96712; 136542</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>45510; 76711</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>55231; 94701</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>67222; 101666</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>65613; 101571</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>38167; 65751</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>27045; 84900</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>150217; 198383</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>173701; 226106</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>91457; 133437</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>80179; 163943</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>103844</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>106244</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>104808</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>141416</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>85389</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>107909</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>92606</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>80439</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>189232</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>214153</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>197414</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>221855</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>87156; 124422</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>87775; 127571</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>87481; 124890</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>58852; 202711</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>68405; 103541</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>89500; 127787</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>75210; 112067</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>67275; 95637</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>166405; 215281</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>186784; 242594</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>171718; 224725</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>118247; 269668</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1298</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>489693</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>720197</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>475728</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>484977</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>402562</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>551865</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>373344</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>376402</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>892255</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1272062</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>849072</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>861379</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>450878; 531386</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>672392; 772075</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>436630; 518235</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>374856; 544619</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>364094; 437561</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>509695; 593783</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>335473; 413296</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>308764; 417583</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>834415; 948895</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1210693; 1340636</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>794359; 903583</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>745530; 940970</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>